--- a/other data/classification.xlsx
+++ b/other data/classification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Master Thesis\data analysis\impact-of-ambient-temperature-on-visits-to-general-practitioners\other data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael (limited)\Desktop\Master Thesis\data analysis\impact-of-ambient-temperature-on-visits-to-general-practitioners\other data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6C37451-E13E-43E7-8DD8-19B67E9814DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA5F952-CD8B-4BC1-86B7-721EA5A52A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1542AE44-0E15-4D24-892B-9A5A285829CF}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>letter</t>
   </si>
   <si>
-    <t>suffix</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>.0</t>
-  </si>
-  <si>
     <t>start_no</t>
   </si>
   <si>
@@ -90,6 +81,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -125,9 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,34 +435,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA83B8D-FB72-4598-B72F-434B6D4394AC}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -477,13 +467,13 @@
       <c r="C2">
         <v>31</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>68</v>
@@ -491,13 +481,13 @@
       <c r="C3">
         <v>69</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -505,111 +495,111 @@
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>67</v>
-      </c>
-      <c r="C6">
-        <v>67</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>78</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>99</v>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
         <v>99</v>
       </c>
-      <c r="E9">
+      <c r="D10">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
-      </c>
-      <c r="E10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>84</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>99</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -617,13 +607,13 @@
       <c r="C12">
         <v>99</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -631,13 +621,13 @@
       <c r="C13">
         <v>99</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -645,13 +635,13 @@
       <c r="C14">
         <v>90</v>
       </c>
-      <c r="E14">
+      <c r="D14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -659,13 +649,13 @@
       <c r="C15">
         <v>93</v>
       </c>
-      <c r="E15">
+      <c r="D15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -673,13 +663,13 @@
       <c r="C16">
         <v>98</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -687,7 +677,7 @@
       <c r="C17">
         <v>99</v>
       </c>
-      <c r="E17">
+      <c r="D17">
         <v>10</v>
       </c>
     </row>
